--- a/vba_条件つきしょしき.xlsx
+++ b/vba_条件つきしょしき.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asato\Desktop\havy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2CF5F3A-30F1-428B-898C-5289FCD9AAF6}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE5938ED-02E2-4EB2-8CDD-8BB2F643E41F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25140" windowHeight="9405" xr2:uid="{BE1C437F-540E-4AB6-9479-703BBC419AD0}"/>
   </bookViews>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -151,67 +151,26 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="4">
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFD7D7D7"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
     </dxf>
@@ -230,7 +189,12 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{1F5942B5-D8CB-4D45-81B3-A4DC2B8BA4F7}">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -539,10 +503,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE7EC462-DD0E-45B1-88CF-512EE149B27C}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="D1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -737,7 +702,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="D6">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="3" priority="5">
       <formula>$E6&gt;="a"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -747,7 +712,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:D21">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>$E7&gt;="a"</formula>
     </cfRule>
   </conditionalFormatting>
